--- a/ismael.xlsx
+++ b/ismael.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,57 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lennox</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lennox</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Is</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ismael.xlsx
+++ b/ismael.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,79 +421,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Lennox</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lennox</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lennox</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>End</t>
-        </is>
-      </c>
-    </row>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
